--- a/EXCEL CON CASOS.xlsx
+++ b/EXCEL CON CASOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD7753-F0D6-403B-82C9-9D4AAB83D481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161D8BB-3675-408A-9451-B1FBB08BA8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5E8FE35-D58D-4974-AC5F-812A87BF46C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>CASO</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Es un caso común donde los ingresos brutos del usuario equivalen a 100,000,000 y el saldo a favor es 0</t>
   </si>
   <si>
-    <t>Un caso común, solo que en este, el saldo a favor es positivo</t>
-  </si>
-  <si>
     <t>Un caso extraordinario donde el usuario cuenta con ingresos más altos de lo normal, de 500,000,00 de pesos</t>
   </si>
   <si>
@@ -122,26 +119,34 @@
     <t>Caso común</t>
   </si>
   <si>
-    <t>Caso común, este cuenta con deducciones altas, lo cual equivale a un impuesto menor</t>
-  </si>
-  <si>
     <t>Caso común, este sería más aproximado a un asalariado, pues el UVT es igual a 1,311  que es un rango aceptable</t>
   </si>
   <si>
     <t>Caso común, solo que las deducciones son iguales a cero, es decir, del ingreso del usuario se le cobra todo sin descuentos ni gastos</t>
+  </si>
+  <si>
+    <t>Caso de error, la Renta Exenta no puede ser negativa, por ende, el cálculo da 0</t>
+  </si>
+  <si>
+    <t>Caso de error, no se pueden omitir datos esenciales tales como los ingresos brutos</t>
+  </si>
+  <si>
+    <t>Caso de error, no se puede tener un Ingreso Bruto igual a 0</t>
+  </si>
+  <si>
+    <t>Caso extraordinario, este cuenta con deducciones altas, lo cual equivale a un impuesto menor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +169,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -210,15 +251,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -236,27 +277,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,7 +647,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,549 +667,547 @@
     <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1"/>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="25">
         <v>100000000</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="25">
         <v>10000000</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="25">
         <v>5000000</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="25">
         <v>500000</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="25">
         <v>1000000</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="25">
         <v>200000000</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14">
+      <c r="H2"/>
+      <c r="I2" s="25">
         <f>B2-(C2+D2)</f>
         <v>85000000</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="25">
         <f>I2/47065</f>
         <v>1806.0129607988952</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="25">
         <f>(I2*K2)-(E2+F2)</f>
         <v>22300000.000000004</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="25">
         <f>IF(L2&lt;0,ABS(L2),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>-1000000</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" s="15">
+        <f>B3-(C3+D3)</f>
+        <v>2000000</v>
+      </c>
+      <c r="J3" s="15">
+        <f>I3/47065</f>
+        <v>42.494422607032824</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" ref="L3:L11" si="0">(I3*K3)-(E3+F3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <f>IF(L3&lt;0,ABS(L3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>500000000</v>
+      </c>
+      <c r="C4" s="21">
         <v>50000000</v>
       </c>
-      <c r="C3" s="14">
+      <c r="D4" s="21">
         <v>10000000</v>
       </c>
-      <c r="D3" s="14">
+      <c r="E4" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="F4" s="21">
         <v>5000000</v>
       </c>
-      <c r="E3" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="F3" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="G3" s="14">
-        <v>100000000</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14">
-        <f>B3-(C3+D3)</f>
-        <v>35000000</v>
-      </c>
-      <c r="J3" s="14">
-        <f>I3/47065</f>
-        <v>743.65239562307443</v>
-      </c>
-      <c r="K3" s="17">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L3" s="14">
-        <f t="shared" ref="L3:L11" si="0">(I3*K3)-(E3+F3)</f>
-        <v>-5947500</v>
-      </c>
-      <c r="M3" s="14">
-        <f>IF(L3&lt;0,ABS(L3),0)</f>
-        <v>5947500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <v>500000000</v>
-      </c>
-      <c r="C4" s="14">
-        <v>50000000</v>
-      </c>
-      <c r="D4" s="14">
-        <v>10000000</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2000000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="G4" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14">
+      <c r="H4"/>
+      <c r="I4" s="21">
         <f>B4-(C4+D4)</f>
         <v>440000000</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="21">
         <f>I4/47065</f>
         <v>9348.7729735472221</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="22">
         <v>0.35</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="21">
         <f t="shared" si="0"/>
         <v>147000000</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="21">
         <f>IF(L4&lt;0,ABS(L4),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>30000000</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>40000000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>5000000</v>
       </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
         <v>50000000</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14">
+      <c r="H5"/>
+      <c r="I5" s="15">
         <f>B5-(C5+D5)</f>
         <v>-15000000</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <f>I5/47065</f>
         <v>-318.7081695527462</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="18">
         <v>1.5E-3</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>-22500</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="15">
         <f>IF(L5&lt;0,ABS(L5),0)</f>
         <v>22500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
-        <v>80000000</v>
-      </c>
-      <c r="C6" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="F6" s="13">
-        <v>500000</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <v>150000000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="14">
+      <c r="H6"/>
+      <c r="I6" s="15">
         <f>B6-(C6+D6)</f>
-        <v>60000000</v>
-      </c>
-      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <f>I6/47065</f>
-        <v>1274.8326782109848</v>
+        <v>0</v>
       </c>
       <c r="K6" s="16">
         <v>0.19</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
-        <v>9900000</v>
-      </c>
-      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
         <f>IF(L6&lt;0,ABS(L6),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="28">
         <v>70000000</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
         <v>1000000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="28">
         <v>100000000</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="14">
+      <c r="H7"/>
+      <c r="I7" s="25">
         <f t="shared" ref="I7:I11" si="1">B7-(C7+D7)</f>
         <v>70000000</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="25">
         <f t="shared" ref="J7:J11" si="2">I7/47065</f>
         <v>1487.3047912461489</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="26">
         <v>0.19</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="25">
         <f t="shared" si="0"/>
         <v>12300000</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="25">
         <f t="shared" ref="M7:M11" si="3">IF(L7&lt;0,ABS(L7),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="28">
         <v>69718000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="28">
         <v>5000000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="28">
         <v>3000000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="28">
         <v>500000</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="28">
         <v>1000000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="28">
         <v>80000000</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="14">
+      <c r="H8"/>
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>61718000</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="25">
         <f t="shared" si="2"/>
         <v>1311.335387230426</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="26">
         <v>0.19</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="25">
         <f>(I8*K8)-(E8+F8)</f>
         <v>10226420</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="20">
         <v>120000000</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <v>50000000</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="20">
         <v>20000000</v>
       </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
         <v>500000</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="20">
         <v>200000000</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="14">
+      <c r="H9"/>
+      <c r="I9" s="21">
         <f t="shared" si="1"/>
         <v>50000000</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="21">
         <f t="shared" si="2"/>
         <v>1062.3605651758207</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="22">
         <v>1.5E-3</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="21">
         <f>(I9*K9)-(E9+F9)</f>
         <v>-425000</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="21">
         <f t="shared" si="3"/>
         <v>425000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="28">
         <v>100000000</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="28">
         <v>95000000</v>
       </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
         <v>200000</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="28">
         <v>300000</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="28">
         <v>150000000</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="14">
+      <c r="H10"/>
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="25">
         <f t="shared" si="2"/>
         <v>106.23605651758207</v>
       </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
         <f t="shared" si="0"/>
         <v>-500000</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="25">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>80000000</v>
-      </c>
-      <c r="C11" s="13">
-        <v>10000000</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10000000</v>
-      </c>
-      <c r="E11" s="13">
-        <v>500000</v>
-      </c>
-      <c r="F11" s="13">
-        <v>700000</v>
-      </c>
-      <c r="G11" s="13">
-        <v>120000000</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="14">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" s="15">
         <f t="shared" si="1"/>
-        <v>60000000</v>
-      </c>
-      <c r="J11" s="14">
+        <v>-1000000</v>
+      </c>
+      <c r="J11" s="15">
         <f t="shared" si="2"/>
-        <v>1274.8326782109848</v>
+        <v>-21.247211303516412</v>
       </c>
       <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7">
         <v>0.19</v>
       </c>
-      <c r="L11" s="14">
-        <f t="shared" si="0"/>
-        <v>10200000</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0.33</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>0.37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>0.39</v>
       </c>
     </row>
@@ -1164,83 +1218,83 @@
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="10">
         <v>1</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>2</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>3</v>
-      </c>
-      <c r="B32" s="19" t="s">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>4</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>4</v>
-      </c>
-      <c r="B33" s="19" t="s">
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>7</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>8</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>9</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>5</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>6</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>7</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>8</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>9</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>10</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>27</v>
+      <c r="B39" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL CON CASOS.xlsx
+++ b/EXCEL CON CASOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161D8BB-3675-408A-9451-B1FBB08BA8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B6486-033E-4699-8D53-A78FCFAD44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5E8FE35-D58D-4974-AC5F-812A87BF46C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>CASO</t>
   </si>
@@ -135,13 +135,17 @@
   </si>
   <si>
     <t>Caso extraordinario, este cuenta con deducciones altas, lo cual equivale a un impuesto menor</t>
+  </si>
+  <si>
+    <t>VALOR DE LA UVT (AÑO CERRADO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -251,14 +255,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,34 +289,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
+  <cellStyles count="6">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="4" builtinId="27"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -644,248 +663,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03979194-9E9D-4818-814B-F6747606FA39}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1"/>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="30">
+        <v>47065</v>
+      </c>
+      <c r="C2" s="25">
         <v>100000000</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="25">
         <v>10000000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>5000000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>500000</v>
       </c>
-      <c r="F2" s="25">
+      <c r="G2" s="25">
         <v>1000000</v>
       </c>
-      <c r="G2" s="25">
+      <c r="H2" s="25">
         <v>200000000</v>
       </c>
-      <c r="H2"/>
-      <c r="I2" s="25">
-        <f>B2-(C2+D2)</f>
+      <c r="I2"/>
+      <c r="J2" s="25">
+        <f>C2-(D2+E2)</f>
         <v>85000000</v>
       </c>
-      <c r="J2" s="25">
-        <f>I2/47065</f>
+      <c r="K2" s="25">
+        <f>J2/47065</f>
         <v>1806.0129607988952</v>
       </c>
-      <c r="K2" s="26">
+      <c r="L2" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L2" s="25">
-        <f>(I2*K2)-(E2+F2)</f>
+      <c r="M2" s="25">
+        <f>(J2*L2)-(F2+G2)</f>
         <v>22300000.000000004</v>
       </c>
-      <c r="M2" s="25">
-        <f>IF(L2&lt;0,ABS(L2),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="25">
+        <f>IF(M2&lt;0,ABS(M2),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="31">
+        <v>47065</v>
+      </c>
+      <c r="C3" s="15">
         <v>1000000</v>
       </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
       <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>-1000000</v>
       </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
       <c r="F3" s="15">
         <v>0</v>
       </c>
       <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
         <v>1000000</v>
       </c>
-      <c r="H3"/>
-      <c r="I3" s="15">
-        <f>B3-(C3+D3)</f>
+      <c r="I3"/>
+      <c r="J3" s="15">
+        <f>C3-(D3+E3)</f>
         <v>2000000</v>
       </c>
-      <c r="J3" s="15">
-        <f>I3/47065</f>
+      <c r="K3" s="15">
+        <f>J3/47065</f>
         <v>42.494422607032824</v>
       </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
-        <f t="shared" ref="L3:L11" si="0">(I3*K3)-(E3+F3)</f>
+      <c r="L3" s="16">
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f>IF(L3&lt;0,ABS(L3),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M3:M11" si="0">(J3*L3)-(F3+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <f>IF(M3&lt;0,ABS(M3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="32">
+        <v>47065</v>
+      </c>
+      <c r="C4" s="21">
         <v>500000000</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="21">
         <v>50000000</v>
       </c>
-      <c r="D4" s="21">
+      <c r="E4" s="21">
         <v>10000000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="F4" s="21">
         <v>2000000</v>
       </c>
-      <c r="F4" s="21">
+      <c r="G4" s="21">
         <v>5000000</v>
       </c>
-      <c r="G4" s="21">
+      <c r="H4" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H4"/>
-      <c r="I4" s="21">
-        <f>B4-(C4+D4)</f>
+      <c r="I4"/>
+      <c r="J4" s="21">
+        <f>C4-(D4+E4)</f>
         <v>440000000</v>
       </c>
-      <c r="J4" s="21">
-        <f>I4/47065</f>
+      <c r="K4" s="21">
+        <f>J4/47065</f>
         <v>9348.7729735472221</v>
       </c>
-      <c r="K4" s="22">
+      <c r="L4" s="22">
         <v>0.35</v>
       </c>
-      <c r="L4" s="21">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>147000000</v>
       </c>
-      <c r="M4" s="21">
-        <f>IF(L4&lt;0,ABS(L4),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="21">
+        <f>IF(M4&lt;0,ABS(M4),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="31">
+        <v>47065</v>
+      </c>
+      <c r="C5" s="15">
         <v>30000000</v>
       </c>
-      <c r="C5" s="15">
+      <c r="D5" s="15">
         <v>40000000</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="15">
         <v>5000000</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
       <c r="F5" s="15">
         <v>0</v>
       </c>
       <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
         <v>50000000</v>
       </c>
-      <c r="H5"/>
-      <c r="I5" s="15">
-        <f>B5-(C5+D5)</f>
+      <c r="I5"/>
+      <c r="J5" s="15">
+        <f>C5-(D5+E5)</f>
         <v>-15000000</v>
       </c>
-      <c r="J5" s="15">
-        <f>I5/47065</f>
+      <c r="K5" s="15">
+        <f>J5/47065</f>
         <v>-318.7081695527462</v>
       </c>
-      <c r="K5" s="18">
+      <c r="L5" s="18">
         <v>1.5E-3</v>
       </c>
-      <c r="L5" s="15">
+      <c r="M5" s="15">
         <f t="shared" si="0"/>
         <v>-22500</v>
       </c>
-      <c r="M5" s="15">
-        <f>IF(L5&lt;0,ABS(L5),0)</f>
+      <c r="N5" s="15">
+        <f>IF(M5&lt;0,ABS(M5),0)</f>
         <v>22500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
+      <c r="B6" s="31">
+        <v>47065</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="14">
         <v>0</v>
       </c>
@@ -896,39 +931,42 @@
         <v>0</v>
       </c>
       <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
         <v>150000000</v>
       </c>
-      <c r="H6"/>
-      <c r="I6" s="15">
-        <f>B6-(C6+D6)</f>
-        <v>0</v>
-      </c>
+      <c r="I6"/>
       <c r="J6" s="15">
-        <f>I6/47065</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+        <f>C6-(D6+E6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>J6/47065</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
         <v>0.19</v>
       </c>
-      <c r="L6" s="15">
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="15">
-        <f>IF(L6&lt;0,ABS(L6),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="15">
+        <f>IF(M6&lt;0,ABS(M6),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="33">
+        <v>47065</v>
+      </c>
+      <c r="C7" s="28">
         <v>70000000</v>
       </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
       <c r="D7" s="28">
         <v>0</v>
       </c>
@@ -936,174 +974,186 @@
         <v>0</v>
       </c>
       <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
         <v>1000000</v>
       </c>
-      <c r="G7" s="28">
+      <c r="H7" s="28">
         <v>100000000</v>
       </c>
-      <c r="H7"/>
-      <c r="I7" s="25">
-        <f t="shared" ref="I7:I11" si="1">B7-(C7+D7)</f>
+      <c r="I7"/>
+      <c r="J7" s="25">
+        <f t="shared" ref="J7:J11" si="1">C7-(D7+E7)</f>
         <v>70000000</v>
       </c>
-      <c r="J7" s="25">
-        <f t="shared" ref="J7:J11" si="2">I7/47065</f>
+      <c r="K7" s="25">
+        <f t="shared" ref="K7:K11" si="2">J7/47065</f>
         <v>1487.3047912461489</v>
       </c>
-      <c r="K7" s="26">
+      <c r="L7" s="26">
         <v>0.19</v>
       </c>
-      <c r="L7" s="25">
+      <c r="M7" s="25">
         <f t="shared" si="0"/>
         <v>12300000</v>
       </c>
-      <c r="M7" s="25">
-        <f t="shared" ref="M7:M11" si="3">IF(L7&lt;0,ABS(L7),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="25">
+        <f t="shared" ref="N7:N11" si="3">IF(M7&lt;0,ABS(M7),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="33">
+        <v>47065</v>
+      </c>
+      <c r="C8" s="28">
         <v>69718000</v>
       </c>
-      <c r="C8" s="28">
+      <c r="D8" s="28">
         <v>5000000</v>
       </c>
-      <c r="D8" s="28">
+      <c r="E8" s="28">
         <v>3000000</v>
       </c>
-      <c r="E8" s="28">
+      <c r="F8" s="28">
         <v>500000</v>
       </c>
-      <c r="F8" s="28">
+      <c r="G8" s="28">
         <v>1000000</v>
       </c>
-      <c r="G8" s="28">
+      <c r="H8" s="28">
         <v>80000000</v>
       </c>
-      <c r="H8"/>
-      <c r="I8" s="25">
+      <c r="I8"/>
+      <c r="J8" s="25">
         <f t="shared" si="1"/>
         <v>61718000</v>
       </c>
-      <c r="J8" s="25">
+      <c r="K8" s="25">
         <f t="shared" si="2"/>
         <v>1311.335387230426</v>
       </c>
-      <c r="K8" s="26">
+      <c r="L8" s="26">
         <v>0.19</v>
       </c>
-      <c r="L8" s="25">
-        <f>(I8*K8)-(E8+F8)</f>
+      <c r="M8" s="25">
+        <f>(J8*L8)-(F8+G8)</f>
         <v>10226420</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="32">
+        <v>47065</v>
+      </c>
+      <c r="C9" s="20">
         <v>120000000</v>
       </c>
-      <c r="C9" s="20">
+      <c r="D9" s="20">
         <v>50000000</v>
       </c>
-      <c r="D9" s="20">
+      <c r="E9" s="20">
         <v>20000000</v>
       </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
       <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
         <v>500000</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="20">
         <v>200000000</v>
       </c>
-      <c r="H9"/>
-      <c r="I9" s="21">
+      <c r="I9"/>
+      <c r="J9" s="21">
         <f t="shared" si="1"/>
         <v>50000000</v>
       </c>
-      <c r="J9" s="21">
+      <c r="K9" s="21">
         <f t="shared" si="2"/>
         <v>1062.3605651758207</v>
       </c>
-      <c r="K9" s="22">
+      <c r="L9" s="22">
         <v>1.5E-3</v>
       </c>
-      <c r="L9" s="21">
-        <f>(I9*K9)-(E9+F9)</f>
+      <c r="M9" s="21">
+        <f>(J9*L9)-(F9+G9)</f>
         <v>-425000</v>
       </c>
-      <c r="M9" s="21">
+      <c r="N9" s="21">
         <f t="shared" si="3"/>
         <v>425000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="33">
+        <v>47065</v>
+      </c>
+      <c r="C10" s="28">
         <v>100000000</v>
       </c>
-      <c r="C10" s="28">
+      <c r="D10" s="28">
         <v>95000000</v>
       </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
       <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
         <v>200000</v>
       </c>
-      <c r="F10" s="28">
+      <c r="G10" s="28">
         <v>300000</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <v>150000000</v>
       </c>
-      <c r="H10"/>
-      <c r="I10" s="25">
+      <c r="I10"/>
+      <c r="J10" s="25">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="J10" s="25">
+      <c r="K10" s="25">
         <f t="shared" si="2"/>
         <v>106.23605651758207</v>
       </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
         <f t="shared" si="0"/>
         <v>-500000</v>
       </c>
-      <c r="M10" s="25">
+      <c r="N10" s="25">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
+      <c r="B11" s="31">
+        <v>47065</v>
       </c>
       <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
         <v>1000000</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
       <c r="E11" s="14">
         <v>0</v>
       </c>
@@ -1113,187 +1163,210 @@
       <c r="G11" s="14">
         <v>0</v>
       </c>
-      <c r="H11"/>
-      <c r="I11" s="15">
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
         <v>-21.247211303516412</v>
       </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N11" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7">
         <v>0.19</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7">
         <v>0.33</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9">
         <v>0.35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="1"/>
+      <c r="C24" s="9">
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="1"/>
+      <c r="C25" s="9">
         <v>0.39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>2</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>3</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>5</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>6</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>7</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>8</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>9</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>10</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>31</v>
       </c>
     </row>

--- a/EXCEL CON CASOS.xlsx
+++ b/EXCEL CON CASOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B6486-033E-4699-8D53-A78FCFAD44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4236F-2AA3-4E5F-BA5F-4B32B18D502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5E8FE35-D58D-4974-AC5F-812A87BF46C1}"/>
   </bookViews>
